--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H2">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I2">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J2">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.98117766666667</v>
+        <v>2.843949</v>
       </c>
       <c r="N2">
-        <v>170.943533</v>
+        <v>8.531846999999999</v>
       </c>
       <c r="O2">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="P2">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
       <c r="Q2">
-        <v>2462.310574143818</v>
+        <v>13.128728428994</v>
       </c>
       <c r="R2">
-        <v>22160.79516729437</v>
+        <v>118.158555860946</v>
       </c>
       <c r="S2">
-        <v>0.1416332148446723</v>
+        <v>0.009120620446757302</v>
       </c>
       <c r="T2">
-        <v>0.1416332148446722</v>
+        <v>0.009120620446757306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H3">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I3">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J3">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.550157</v>
       </c>
       <c r="O3">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="P3">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
       <c r="Q3">
-        <v>108.7542248091127</v>
+        <v>11.61811280128067</v>
       </c>
       <c r="R3">
-        <v>978.7880232820141</v>
+        <v>104.563015211526</v>
       </c>
       <c r="S3">
-        <v>0.006255592064380734</v>
+        <v>0.00807118509162527</v>
       </c>
       <c r="T3">
-        <v>0.006255592064380733</v>
+        <v>0.008071185091625273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H4">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I4">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J4">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3543876666666667</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N4">
         <v>1.063163</v>
       </c>
       <c r="O4">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="P4">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
       <c r="Q4">
-        <v>15.31404815962511</v>
+        <v>1.635985537803778</v>
       </c>
       <c r="R4">
-        <v>137.826433436626</v>
+        <v>14.723869840234</v>
       </c>
       <c r="S4">
-        <v>0.000880870957510316</v>
+        <v>0.001136530717913229</v>
       </c>
       <c r="T4">
-        <v>0.0008808709575103158</v>
+        <v>0.00113653071791323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>713.134216</v>
       </c>
       <c r="I5">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J5">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.98117766666667</v>
+        <v>2.843949</v>
       </c>
       <c r="N5">
-        <v>170.943533</v>
+        <v>8.531846999999999</v>
       </c>
       <c r="O5">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="P5">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
       <c r="Q5">
-        <v>13545.07582069168</v>
+        <v>676.039113486328</v>
       </c>
       <c r="R5">
-        <v>121905.6823862251</v>
+        <v>6084.352021376952</v>
       </c>
       <c r="S5">
-        <v>0.7791188706836738</v>
+        <v>0.4696491510673704</v>
       </c>
       <c r="T5">
-        <v>0.7791188706836737</v>
+        <v>0.4696491510673706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>713.134216</v>
       </c>
       <c r="I6">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J6">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.550157</v>
       </c>
       <c r="O6">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="P6">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
       <c r="Q6">
         <v>598.2528103191014</v>
@@ -818,10 +818,10 @@
         <v>5384.275292871913</v>
       </c>
       <c r="S6">
-        <v>0.03441177149020568</v>
+        <v>0.4156104563848091</v>
       </c>
       <c r="T6">
-        <v>0.03441177149020568</v>
+        <v>0.4156104563848093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>713.134216</v>
       </c>
       <c r="I7">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J7">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3543876666666667</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N7">
         <v>1.063163</v>
       </c>
       <c r="O7">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="P7">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
       <c r="Q7">
-        <v>84.24199027613423</v>
+        <v>84.24199027613422</v>
       </c>
       <c r="R7">
-        <v>758.1779124852081</v>
+        <v>758.1779124852079</v>
       </c>
       <c r="S7">
-        <v>0.004845637277852838</v>
+        <v>0.05852350615244726</v>
       </c>
       <c r="T7">
-        <v>0.004845637277852838</v>
+        <v>0.05852350615244729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>28.629058</v>
       </c>
       <c r="I8">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J8">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.98117766666667</v>
+        <v>2.843949</v>
       </c>
       <c r="N8">
-        <v>170.943533</v>
+        <v>8.531846999999999</v>
       </c>
       <c r="O8">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="P8">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
       <c r="Q8">
-        <v>543.7724801091016</v>
+        <v>27.139860290014</v>
       </c>
       <c r="R8">
-        <v>4893.952320981914</v>
+        <v>244.258742610126</v>
       </c>
       <c r="S8">
-        <v>0.03127803832329003</v>
+        <v>0.01885425279546327</v>
       </c>
       <c r="T8">
-        <v>0.03127803832329003</v>
+        <v>0.01885425279546328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>28.629058</v>
       </c>
       <c r="I9">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J9">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.550157</v>
       </c>
       <c r="O9">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="P9">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
       <c r="Q9">
         <v>24.01709807356734</v>
@@ -1004,10 +1004,10 @@
         <v>216.153882662106</v>
       </c>
       <c r="S9">
-        <v>0.001381474314052328</v>
+        <v>0.01668484780885506</v>
       </c>
       <c r="T9">
-        <v>0.001381474314052328</v>
+        <v>0.01668484780885507</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>28.629058</v>
       </c>
       <c r="I10">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J10">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3543876666666667</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N10">
         <v>1.063163</v>
       </c>
       <c r="O10">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="P10">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
       <c r="Q10">
-        <v>3.381928354494889</v>
+        <v>3.381928354494888</v>
       </c>
       <c r="R10">
         <v>30.437355190454</v>
       </c>
       <c r="S10">
-        <v>0.0001945300443620994</v>
+        <v>0.002349449534758783</v>
       </c>
       <c r="T10">
-        <v>0.0001945300443620994</v>
+        <v>0.002349449534758784</v>
       </c>
     </row>
   </sheetData>
